--- a/Arc2Proj/Images/five_degree_azimuths.xlsx
+++ b/Arc2Proj/Images/five_degree_azimuths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GIS5572\Arc2Proj\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6212E130-50F3-4DC3-8846-9DFB1C8D2DC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B7AE68-A2B7-4D88-95E8-FD7650229A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27A1182B-92AB-4B41-8C9D-492B47A4E694}"/>
+    <workbookView xWindow="2385" yWindow="0" windowWidth="21600" windowHeight="15600" xr2:uid="{27A1182B-92AB-4B41-8C9D-492B47A4E694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,8 +81,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,10 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +447,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +464,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -482,7 +487,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>46.392409999999998</v>
       </c>
       <c r="C2" s="1">
